--- a/output/relationships_candidatesort.xlsx
+++ b/output/relationships_candidatesort.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5067,16 +5067,16 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>BELL</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>COLLEEN</t>
         </is>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -5087,16 +5087,16 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>EYCHANER</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>FRED</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>EYCHANER</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>FRED</t>
         </is>
       </c>
       <c r="D238">
@@ -5127,12 +5127,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>HEINS</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D239">
@@ -5147,12 +5147,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>HEINS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>TONY</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="D240">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>TONY</t>
         </is>
       </c>
       <c r="D241">
@@ -5187,16 +5187,16 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -5207,16 +5207,16 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5227,16 +5227,16 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -5247,16 +5247,16 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -5267,16 +5267,16 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BILL</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -5287,36 +5287,36 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -5327,16 +5327,16 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D250">
@@ -5362,17 +5362,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BESHAR</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>PETER</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D251">
@@ -5387,16 +5387,16 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>BESHAR</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -5407,16 +5407,16 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -5427,16 +5427,16 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D255">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MCLARTY</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MARY ALICE</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D256">
@@ -5487,16 +5487,16 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MCLARTY</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>MARY ALICE</t>
         </is>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -5507,16 +5507,16 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>REEVES</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>BEVERLY</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -5527,32 +5527,32 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SOLOW</t>
+          <t>REEVES</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>BEVERLY</t>
         </is>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>SOLOW</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="D260">
@@ -5567,16 +5567,16 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CONLON</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>KEVIN</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -5587,36 +5587,36 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>CONLON</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ALDERMAN</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
@@ -5627,16 +5627,16 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>ALDERMAN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="D265">
@@ -5667,12 +5667,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="D266">
@@ -5682,21 +5682,21 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BARBER</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>ROB</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>BARBER</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>ROB</t>
         </is>
       </c>
       <c r="D268">
@@ -5727,16 +5727,16 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -5747,15 +5747,35 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
+          <t>MASON</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LINDA</t>
+        </is>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>WARREN, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
           <t>SACCA</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>CHRIS</t>
         </is>
       </c>
-      <c r="D270">
+      <c r="D271">
         <v>5</v>
       </c>
     </row>
